--- a/Pinshape.xlsx
+++ b/Pinshape.xlsx
@@ -1,49 +1,113 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="perfiles" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="perfiles" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>web</t>
+  </si>
+  <si>
+    <t>bio/descripcion</t>
+  </si>
+  <si>
+    <t>proxy</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>url perfil</t>
+  </si>
+  <si>
+    <t>El significado del nombre Manuel8</t>
+  </si>
+  <si>
+    <t>https://todoslosnombres.me/manuel-significado/</t>
+  </si>
+  <si>
+    <t>Viene de inmau el, immanuel que es la forma grecolatina del nombre de origen hebreo Manuel. Significa "Dios está con nosotros".</t>
+  </si>
+  <si>
+    <t>emailprueba30@estoesunapruebade3.com</t>
+  </si>
+  <si>
+    <t>https://pinshape.comhttps://pinshape.com/users/1564269-el-significado-del-nombre-manuel8</t>
+  </si>
+  <si>
+    <t>El significado del nombre Sara3</t>
+  </si>
+  <si>
+    <t>https://todoslosnombres.me/sara-significado/</t>
+  </si>
+  <si>
+    <t>Sara es un nombre de origen hebreo con un bonito significado. ¿Sabías que Sara quiere decir "princesa"?</t>
+  </si>
+  <si>
+    <t>emailprueba5@estoesunapruebade4.com</t>
+  </si>
+  <si>
+    <t>El significado del nombre Sara4</t>
+  </si>
+  <si>
+    <t>emailprueba3@estoesunapruebade4.com</t>
+  </si>
+  <si>
+    <t>El significado del nombre Sara5</t>
+  </si>
+  <si>
+    <t>emailprueba4@estoesunapruebade4.com</t>
+  </si>
+  <si>
+    <t>mdomin01:3DWwmbTz@158.115.239.102:29842</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -63,85 +127,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -400,167 +402,120 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="28" customWidth="1" min="1" max="1"/>
-    <col width="29" customWidth="1" min="2" max="2"/>
-    <col width="24.7109375" customWidth="1" min="3" max="3"/>
-    <col width="28" customWidth="1" min="4" max="4"/>
-    <col width="36" customWidth="1" min="5" max="5"/>
-    <col width="21.5703125" customWidth="1" min="6" max="6"/>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="24.75" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="6" max="6" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>user</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>web</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>bio/descripcion</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>proxy</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>url perfil</t>
-        </is>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>El significado del nombre Manuel8</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>https://todoslosnombres.me/manuel-significado/</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Viene de inmau el, immanuel que es la forma grecolatina del nombre de origen hebreo Manuel. Significa "Dios está con nosotros".</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>emailprueba30@estoesunapruebade3.com</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>https://pinshape.comhttps://pinshape.com/users/1564269-el-significado-del-nombre-manuel8</t>
-        </is>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>El significado del nombre Sara3</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>https://todoslosnombres.me/sara-significado/</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Sara es un nombre de origen hebreo con un bonito significado. ¿Sabías que Sara quiere decir "princesa"?</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>emailprueba5@estoesunapruebade4.com</t>
-        </is>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>El significado del nombre Sara4</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>https://todoslosnombres.me/sara-significado/</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Sara es un nombre de origen hebreo con un bonito significado. ¿Sabías que Sara quiere decir "princesa"?</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>emailprueba3@estoesunapruebade4.com</t>
-        </is>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>El significado del nombre Sara5</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>https://todoslosnombres.me/sara-significado/</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Sara es un nombre de origen hebreo con un bonito significado. ¿Sabías que Sara quiere decir "princesa"?</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>emailprueba4@estoesunapruebade4.com</t>
-        </is>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E3" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E4" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E5" r:id="rId4"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>